--- a/DDPFDI/Upload/Sample Format.xlsx
+++ b/DDPFDI/Upload/Sample Format.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>NSN GROUP</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>END USER</t>
-  </si>
-  <si>
-    <t>END USER PART NUMBAR</t>
   </si>
   <si>
     <t>DPSU PART NUMBER</t>
@@ -456,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="14.4"/>
@@ -478,29 +475,28 @@
     <col min="12" max="12" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="34.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="44.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="43" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="14.33203125" style="1"/>
+    <col min="15" max="15" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="44.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="14.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:24" ht="18">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -530,16 +526,16 @@
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>13</v>
@@ -554,19 +550,16 @@
         <v>16</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
